--- a/w2d1 esercizi.xlsx
+++ b/w2d1 esercizi.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\carlo\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90E0729D-D0E2-4B34-B022-13B7204B3C36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBDA775-615F-4E8D-BC99-AD7E8E7A9FF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -290,6 +290,195 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000004-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="4"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000006-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="5"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent6"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000007-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="6"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000008-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="8"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000009-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="9"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-499D-406D-9EDE-E09D5D5E1BEF}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Prodotti!$B$2:$B$11</c:f>
@@ -1561,6 +1750,66 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-43BA-4435-B4E8-60980FDBF9AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000002-43BA-4435-B4E8-60980FDBF9AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="3"/>
+            <c:invertIfNegative val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-43BA-4435-B4E8-60980FDBF9AD}"/>
+              </c:ext>
+            </c:extLst>
+          </c:dPt>
           <c:cat>
             <c:strRef>
               <c:f>Prodotti!$F$2:$F$5</c:f>
@@ -4790,8 +5039,8 @@
   </sheetPr>
   <dimension ref="A1:Y11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P66" sqref="P66"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I70" sqref="I70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
